--- a/data/raw/ttc/docs/ttc-subway-delay-codes.xlsx
+++ b/data/raw/ttc/docs/ttc-subway-delay-codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\OneDrive\PET PROJECTS\TTC Delay Analysis\data\raw\ttc\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_91D01D04097F702293035DE3F55B2D334B19BBA2" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{D65066BA-729F-42E4-8791-1251AFCFB65C}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_91D01D04097F702293035DE3F55B2D334B19BBA2" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{AE2D56F0-97C7-4CA8-B064-2D773FB23646}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="2300" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1071,10 +1071,10 @@
     <t>MRFS</t>
   </si>
   <si>
-    <t>CODE</t>
-  </si>
-  <si>
     <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>DELAY_CODE</t>
   </si>
 </sst>
 </file>
@@ -1535,7 +1535,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1549,10 +1549,10 @@
     <row r="1" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>346</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
